--- a/project-05/onedrive-db/src/bd-onedrive.xlsx
+++ b/project-05/onedrive-db/src/bd-onedrive.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27927"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_946C61842391FA7C47A79957CE174063520C5F3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_946C61842391FA7C47A79957CE174063520C5F3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C12C6CD-AEAA-46DC-BCD3-460419B02033}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -226,6 +226,57 @@
   </si>
   <si>
     <t>Peñalolén</t>
+  </si>
+  <si>
+    <t>M54.5</t>
+  </si>
+  <si>
+    <t>E66.9</t>
+  </si>
+  <si>
+    <t>Dieta y Ejercicio</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>Diuréticos</t>
+  </si>
+  <si>
+    <t>E78.5</t>
+  </si>
+  <si>
+    <t>Estatinas</t>
+  </si>
+  <si>
+    <t>J20.9</t>
+  </si>
+  <si>
+    <t>Antibióticos</t>
+  </si>
+  <si>
+    <t>Dr. Jiménez</t>
+  </si>
+  <si>
+    <t>K21.9</t>
+  </si>
+  <si>
+    <t>Inhibidores de la Bomba de Protones</t>
+  </si>
+  <si>
+    <t>F32.9</t>
+  </si>
+  <si>
+    <t>Antidepresivos</t>
+  </si>
+  <si>
+    <t>Dra. Gómez</t>
+  </si>
+  <si>
+    <t>I25.10</t>
+  </si>
+  <si>
+    <t>Beta Bloqueadores</t>
   </si>
 </sst>
 </file>
@@ -504,7 +555,9 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -885,41 +938,345 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="E12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45280</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45301</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="E13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>45265</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="E14" s="4"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45347</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="E15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45316</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="E16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45275</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4">
+        <v>45301</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45371</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45332</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="4">
+        <v>45350</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45376</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="4">
+        <v>45392</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45321</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45427</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4">
+        <v>45448</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
